--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,39 +46,42 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>water</t>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>instead</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -88,79 +91,82 @@
     <t>broken</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>one</t>
   </si>
   <si>
     <t>negative</t>
@@ -169,6 +175,9 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -200,12 +209,6 @@
   </si>
   <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -662,16 +665,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>0.8392857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.734375</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -759,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5">
+        <v>0.8</v>
+      </c>
+      <c r="L5">
         <v>52</v>
       </c>
-      <c r="K5">
-        <v>0.6559139784946236</v>
-      </c>
-      <c r="L5">
-        <v>61</v>
-      </c>
       <c r="M5">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7105263157894737</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>0.5849056603773585</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7096774193548387</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C7">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,16 +865,16 @@
         <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.5625</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7087378640776699</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>0.3768115942028986</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.676056338028169</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.3396226415094339</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L9">
-        <v>414</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>415</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>805</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.668918918918919</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C10">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>0.2912482065997131</v>
+        <v>0.3385245901639344</v>
       </c>
       <c r="L10">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="M10">
-        <v>203</v>
+        <v>413</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>494</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11">
-        <v>0.2593360995850623</v>
+        <v>0.3084648493543759</v>
       </c>
       <c r="L11">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="M11">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>357</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6050420168067226</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C12">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K12">
-        <v>0.2583333333333334</v>
+        <v>0.2863070539419087</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5952380952380952</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.2289156626506024</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>128</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5555555555555556</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.1590214067278287</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L14">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>275</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5416666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.1322751322751323</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>164</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5014492753623189</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C16">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.1004016064257028</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>224</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.462962962962963</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.08238387379491674</v>
+        <v>0.02920181700194679</v>
       </c>
       <c r="L17">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1047</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1391,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4337349397590362</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,31 +1412,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>47</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18">
-        <v>0.027255029201817</v>
-      </c>
-      <c r="L18">
-        <v>42</v>
-      </c>
-      <c r="M18">
-        <v>42</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>1499</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,13 +1420,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4315789473684211</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1459,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4074074074074074</v>
+        <v>0.45</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1493,13 +1472,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3968253968253968</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1511,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1519,13 +1498,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3937007874015748</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1537,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1545,13 +1524,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3514851485148515</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C23">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1563,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>131</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1571,13 +1550,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3483146067415731</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1589,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1597,13 +1576,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.296875</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1615,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1623,13 +1602,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2890995260663507</v>
+        <v>0.3364928909952606</v>
       </c>
       <c r="C26">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D26">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1641,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1649,13 +1628,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.264957264957265</v>
+        <v>0.3203125</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1667,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1675,13 +1654,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2319587628865979</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C28">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1693,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1701,13 +1680,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.21</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C29">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1719,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>158</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1727,13 +1706,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1956521739130435</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C30">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D30">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1745,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>222</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1753,13 +1732,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1740506329113924</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C31">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1771,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1779,13 +1758,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1708860759493671</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D32">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1797,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>262</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1805,13 +1784,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1661721068249258</v>
+        <v>0.165</v>
       </c>
       <c r="C33">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D33">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1823,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>562</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1831,13 +1810,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1588785046728972</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1849,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>180</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1857,13 +1836,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1401273885350318</v>
+        <v>0.1617210682492582</v>
       </c>
       <c r="C35">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1875,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>135</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1883,13 +1862,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.13215859030837</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C36">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1901,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>394</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1909,13 +1888,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1257142857142857</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1927,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>153</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1935,13 +1914,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1120689655172414</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="C38">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D38">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1953,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1961,13 +1940,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09041095890410959</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C39">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1979,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>332</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1987,13 +1966,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08239700374531835</v>
+        <v>0.1168224299065421</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2005,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>245</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2013,13 +1992,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.06904231625835189</v>
+        <v>0.1041095890410959</v>
       </c>
       <c r="C41">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2031,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>418</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2039,25 +2018,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.05601317957166392</v>
+        <v>0.08239700374531835</v>
       </c>
       <c r="C42">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E42">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>573</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2065,25 +2044,77 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05555555555555555</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.05790645879732739</v>
+      </c>
+      <c r="C44">
         <v>26</v>
       </c>
-      <c r="E43">
-        <v>0.08</v>
-      </c>
-      <c r="F43">
-        <v>0.92</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>408</v>
+      <c r="D44">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.02788339670468948</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>0.19</v>
+      </c>
+      <c r="F45">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
